--- a/S204_Semeadura.xlsx
+++ b/S204_Semeadura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U6037101/Google Drive/Brazil_outlook_deforestation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U6037101/Google Drive/Brazil_outlook_deforestation/semeadura/semeadura_mt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D8711-ECBC-1C42-B666-B082454DAA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C708440-07A3-1F43-96A6-2DC5D26C704C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-17540" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{C68BCD00-E8FF-4824-BA5C-E6E861DD47F3}"/>
+    <workbookView xWindow="0" yWindow="-17540" windowWidth="28800" windowHeight="15840" xr2:uid="{C68BCD00-E8FF-4824-BA5C-E6E861DD47F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Soja" sheetId="1" r:id="rId1"/>
@@ -7598,7 +7598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB01952E-456B-4079-A718-E5A56FB17CB1}">
   <dimension ref="A1:AG159"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -21458,7 +21458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A79AA-C03B-2D4C-9585-5F72FCF5E69A}">
   <dimension ref="A1:K398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A384" workbookViewId="0">
       <selection activeCell="K276" sqref="K276"/>
     </sheetView>
   </sheetViews>

--- a/S204_Semeadura.xlsx
+++ b/S204_Semeadura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U6037101/Google Drive/Brazil_outlook_deforestation/semeadura/semeadura_mt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C708440-07A3-1F43-96A6-2DC5D26C704C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ECEC91-AC49-C247-B6A3-5A14AEA0112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-17540" windowWidth="28800" windowHeight="15840" xr2:uid="{C68BCD00-E8FF-4824-BA5C-E6E861DD47F3}"/>
+    <workbookView xWindow="0" yWindow="-17540" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{C68BCD00-E8FF-4824-BA5C-E6E861DD47F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Soja" sheetId="1" r:id="rId1"/>
@@ -7598,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB01952E-456B-4079-A718-E5A56FB17CB1}">
   <dimension ref="A1:AG159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21458,8 +21458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A79AA-C03B-2D4C-9585-5F72FCF5E69A}">
   <dimension ref="A1:K398"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="K276" sqref="K276"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23397,7 +23397,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="126">
-        <v>41236</v>
+        <v>41242</v>
       </c>
       <c r="D56" s="163">
         <v>1</v>
